--- a/biology/Médecine/Insuffisance_vélopharyngée/Insuffisance_vélopharyngée.xlsx
+++ b/biology/Médecine/Insuffisance_vélopharyngée/Insuffisance_vélopharyngée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Insuffisance_v%C3%A9lopharyng%C3%A9e</t>
+          <t>Insuffisance_vélopharyngée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insuffisance vélopharyngée (IVP) est un dysfonctionnement d'un mécanisme vélopharyngé.
 Le mécanisme vélopharyngé est chargé de diriger la transmission de l'énergie acoustique et la pression de l'air à la fois dans la cavité buccale et la cavité nasale. Lorsque ce mécanisme est altéré d'une certaine façon, la vanne ne ferme pas complètement, et une condition appelée insuffisance vélo-pharyngée peut se développer. L'IVP peut être soit congénitale ou acquise plus tard dans la vie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Insuffisance_v%C3%A9lopharyng%C3%A9e</t>
+          <t>Insuffisance_vélopharyngée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Divers termes peuvent être utilisés pour décrire ce phénomène, en plus de l'insuffisance vélo-pharyngée. Ces termes et définitions sont les suivantes :
 insuffisance vélopharyngée : L'incapacité du sphincter vélo-pharyngé à séparer suffisamment la cavité nasale de la cavité buccale pendant le discours ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Insuffisance_v%C3%A9lopharyng%C3%A9e</t>
+          <t>Insuffisance_vélopharyngée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Rapport avec la fente palatine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fente palatine est une des causes les plus courantes de l'IVP. La fente palatine est une anomalie anatomique qui se produit in utero et qui est présente à la naissance. Cette malformation peut affecter la lèvre, la lèvre et le palais ou le palais seulement. Une fente palatine peut affecter la mobilité de la valve vélopharyngée, entraînant ainsi l'IVP. Les types les plus fréquents de fente palatine sont les fentes manifestes, sous-muqueuses et sous-muqueuses occultes.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Insuffisance_v%C3%A9lopharyng%C3%A9e</t>
+          <t>Insuffisance_vélopharyngée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La fente palatine est la cause la plus fréquente d'IVP. 
-D'autres étiologies importantes existent[1] : 
+D'autres étiologies importantes existent : 
 Causes anatomiques et/ou iatrogènes (notamment post-amygdalectomie)
 Causes fonctionnelles
 Causes neurologiques.</t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Insuffisance_v%C3%A9lopharyng%C3%A9e</t>
+          <t>Insuffisance_vélopharyngée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une méthode courante pour traiter l'insuffisance vélopharyngée est la chirurgie corrective, où le tissu à l'arrière de la bouche est utilisé pour fermer une partie de l'écart. Une autre façon de traiter l'insuffisance vélo-pharyngée est de placer un implant de la paroi du nasopharynx (communément du cartilage ou du collagène) ou bien une procédure de prolongement du palais mou. Une prise en charge orthophonique pourra également être proposée pour rééduquer le voile du palais.
 </t>
